--- a/biology/Zoologie/Bolitoglossa_bramei/Bolitoglossa_bramei.xlsx
+++ b/biology/Zoologie/Bolitoglossa_bramei/Bolitoglossa_bramei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bolitoglossa bramei est une espèce d'urodèles de la famille des Plethodontidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bolitoglossa bramei est une espèce d'urodèles de la famille des Plethodontidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans l'Est du Costa Rica et dans l'Ouest du Panama entre 1 900 et 2 300 m d'altitude dans la cordillère de Talamanca[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans l'Est du Costa Rica et dans l'Ouest du Panama entre 1 900 et 2 300 m d'altitude dans la cordillère de Talamanca.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 37,6 à 39,1 mm sans la queue et les femelles de 38,1 à 41 mm[2]. La queue représente de 93 à 110 % du corps chez les mâles et de 89 à 99 % du corps chez les femelles.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 37,6 à 39,1 mm sans la queue et les femelles de 38,1 à 41 mm. La queue représente de 93 à 110 % du corps chez les mâles et de 89 à 99 % du corps chez les femelles.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, bramei, lui a été donné en l'honneur d'Arden H. Brame, herpétologiste américain, en reconnaissance de sa contribution à l'étude des salamandres néotropicales.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Wake, Savage &amp; Hanken, 2007 : Montane salamanders from the Costa Rica-Panamá border region, with descriptions of two new species of Bolitoglossa. Copeia, vol. 2007, no 3, p. 556-565 (texte intégral).</t>
         </is>
